--- a/uploaded-files/success/Mira Index Mutual Fund - 30 April 2025.xlsx
+++ b/uploaded-files/success/Mira Index Mutual Fund - 30 April 2025.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7635"/>
   </bookViews>
@@ -1033,15 +1028,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00%;\(#,##0.00%\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00%;\(#,##0.00%\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1813,16 +1808,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1831,16 +1826,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1849,10 +1844,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1870,10 +1865,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1891,19 +1886,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1918,10 +1913,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,10 +1931,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1954,10 +1949,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1966,7 +1961,7 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1978,7 +1973,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1993,7 +1988,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2005,10 +2000,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2020,7 +2015,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2032,10 +2027,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2051,10 +2046,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2066,10 +2061,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2078,13 +2073,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2093,7 +2088,7 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2185,7 +2180,7 @@
         <xdr:cNvPr id="2" name="Logo" descr="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABE3AE22-6964-4F65-8B8C-FCF602D2E99C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE3AE22-6964-4F65-8B8C-FCF602D2E99C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2219,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E54FD632-BD91-4630-828E-53856040421C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54FD632-BD91-4630-828E-53856040421C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2249,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="MASCF"/>
@@ -2359,7 +2354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2411,7 +2406,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2605,23 +2600,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:IU131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="83.140625" style="3" customWidth="1"/>
@@ -2634,7 +2629,7 @@
     <col min="10" max="255" width="15.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="107" t="s">
         <v>0</v>
@@ -2647,7 +2642,7 @@
       <c r="H1" s="109"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="4"/>
       <c r="B2" s="110"/>
       <c r="C2" s="111"/>
@@ -2658,7 +2653,7 @@
       <c r="H2" s="112"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="113" t="s">
         <v>1</v>
@@ -2671,7 +2666,7 @@
       <c r="H3" s="115"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="116"/>
       <c r="C4" s="117"/>
@@ -2682,7 +2677,7 @@
       <c r="H4" s="118"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="4"/>
       <c r="B5" s="119" t="s">
         <v>0</v>
@@ -2695,12 +2690,12 @@
       <c r="H5" s="120"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="13"/>
       <c r="B7" s="14" t="s">
         <v>2</v>
@@ -2712,7 +2707,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="24" customHeight="1">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
@@ -2735,7 +2730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
         <v>10</v>
@@ -2747,7 +2742,7 @@
       <c r="G9" s="30"/>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="B10" s="32" t="s">
         <v>11</v>
       </c>
@@ -2758,7 +2753,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="8"/>
       <c r="B11" s="33" t="s">
         <v>12</v>
@@ -2780,7 +2775,7 @@
       </c>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="8"/>
       <c r="B12" s="33" t="s">
         <v>15</v>
@@ -2802,7 +2797,7 @@
       </c>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="8"/>
       <c r="B13" s="33" t="s">
         <v>17</v>
@@ -2824,7 +2819,7 @@
       </c>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="8"/>
       <c r="B14" s="33" t="s">
         <v>20</v>
@@ -2846,7 +2841,7 @@
       </c>
       <c r="H14" s="31"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="8"/>
       <c r="B15" s="33" t="s">
         <v>23</v>
@@ -2868,7 +2863,7 @@
       </c>
       <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="8"/>
       <c r="B16" s="33" t="s">
         <v>25</v>
@@ -2890,7 +2885,7 @@
       </c>
       <c r="H16" s="31"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="8"/>
       <c r="B17" s="33" t="s">
         <v>28</v>
@@ -2912,7 +2907,7 @@
       </c>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="8"/>
       <c r="B18" s="33" t="s">
         <v>30</v>
@@ -2934,7 +2929,7 @@
       </c>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="8"/>
       <c r="B19" s="33" t="s">
         <v>33</v>
@@ -2956,7 +2951,7 @@
       </c>
       <c r="H19" s="31"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="8"/>
       <c r="B20" s="33" t="s">
         <v>36</v>
@@ -2978,7 +2973,7 @@
       </c>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="8"/>
       <c r="B21" s="33" t="s">
         <v>38</v>
@@ -3000,7 +2995,7 @@
       </c>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="8"/>
       <c r="B22" s="33" t="s">
         <v>40</v>
@@ -3022,7 +3017,7 @@
       </c>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="8"/>
       <c r="B23" s="33" t="s">
         <v>43</v>
@@ -3044,7 +3039,7 @@
       </c>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="8"/>
       <c r="B24" s="33" t="s">
         <v>46</v>
@@ -3066,7 +3061,7 @@
       </c>
       <c r="H24" s="31"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="8"/>
       <c r="B25" s="33" t="s">
         <v>49</v>
@@ -3088,7 +3083,7 @@
       </c>
       <c r="H25" s="31"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="8"/>
       <c r="B26" s="33" t="s">
         <v>51</v>
@@ -3110,7 +3105,7 @@
       </c>
       <c r="H26" s="31"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="8"/>
       <c r="B27" s="33" t="s">
         <v>53</v>
@@ -3132,7 +3127,7 @@
       </c>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="8"/>
       <c r="B28" s="33" t="s">
         <v>56</v>
@@ -3154,7 +3149,7 @@
       </c>
       <c r="H28" s="31"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="8"/>
       <c r="B29" s="33" t="s">
         <v>59</v>
@@ -3176,7 +3171,7 @@
       </c>
       <c r="H29" s="31"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="8"/>
       <c r="B30" s="33" t="s">
         <v>62</v>
@@ -3198,7 +3193,7 @@
       </c>
       <c r="H30" s="31"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="8"/>
       <c r="B31" s="33" t="s">
         <v>65</v>
@@ -3220,7 +3215,7 @@
       </c>
       <c r="H31" s="31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="8"/>
       <c r="B32" s="33" t="s">
         <v>68</v>
@@ -3242,7 +3237,7 @@
       </c>
       <c r="H32" s="31"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="8"/>
       <c r="B33" s="33" t="s">
         <v>71</v>
@@ -3264,7 +3259,7 @@
       </c>
       <c r="H33" s="31"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="8"/>
       <c r="B34" s="33" t="s">
         <v>74</v>
@@ -3286,7 +3281,7 @@
       </c>
       <c r="H34" s="31"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="8"/>
       <c r="B35" s="33" t="s">
         <v>77</v>
@@ -3308,7 +3303,7 @@
       </c>
       <c r="H35" s="31"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="8"/>
       <c r="B36" s="33" t="s">
         <v>80</v>
@@ -3330,7 +3325,7 @@
       </c>
       <c r="H36" s="31"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="8"/>
       <c r="B37" s="33" t="s">
         <v>83</v>
@@ -3352,7 +3347,7 @@
       </c>
       <c r="H37" s="31"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="8"/>
       <c r="B38" s="33" t="s">
         <v>85</v>
@@ -3374,7 +3369,7 @@
       </c>
       <c r="H38" s="31"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="8"/>
       <c r="B39" s="33" t="s">
         <v>87</v>
@@ -3396,7 +3391,7 @@
       </c>
       <c r="H39" s="31"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="8"/>
       <c r="B40" s="33" t="s">
         <v>90</v>
@@ -3418,7 +3413,7 @@
       </c>
       <c r="H40" s="31"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="8"/>
       <c r="B41" s="33" t="s">
         <v>93</v>
@@ -3440,7 +3435,7 @@
       </c>
       <c r="H41" s="31"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="8"/>
       <c r="B42" s="33" t="s">
         <v>96</v>
@@ -3462,7 +3457,7 @@
       </c>
       <c r="H42" s="31"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="8"/>
       <c r="B43" s="33" t="s">
         <v>98</v>
@@ -3484,7 +3479,7 @@
       </c>
       <c r="H43" s="31"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="8"/>
       <c r="B44" s="33" t="s">
         <v>100</v>
@@ -3506,7 +3501,7 @@
       </c>
       <c r="H44" s="31"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="8"/>
       <c r="B45" s="33" t="s">
         <v>102</v>
@@ -3528,7 +3523,7 @@
       </c>
       <c r="H45" s="31"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="8"/>
       <c r="B46" s="33" t="s">
         <v>104</v>
@@ -3550,7 +3545,7 @@
       </c>
       <c r="H46" s="31"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="8"/>
       <c r="B47" s="33" t="s">
         <v>106</v>
@@ -3572,7 +3567,7 @@
       </c>
       <c r="H47" s="31"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="8"/>
       <c r="B48" s="33" t="s">
         <v>109</v>
@@ -3594,7 +3589,7 @@
       </c>
       <c r="H48" s="31"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="8"/>
       <c r="B49" s="33" t="s">
         <v>112</v>
@@ -3616,7 +3611,7 @@
       </c>
       <c r="H49" s="31"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="8"/>
       <c r="B50" s="33" t="s">
         <v>115</v>
@@ -3638,7 +3633,7 @@
       </c>
       <c r="H50" s="31"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="8"/>
       <c r="B51" s="33" t="s">
         <v>117</v>
@@ -3660,7 +3655,7 @@
       </c>
       <c r="H51" s="31"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="8"/>
       <c r="B52" s="33" t="s">
         <v>120</v>
@@ -3682,7 +3677,7 @@
       </c>
       <c r="H52" s="31"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="8"/>
       <c r="B53" s="33" t="s">
         <v>123</v>
@@ -3704,7 +3699,7 @@
       </c>
       <c r="H53" s="31"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="8"/>
       <c r="B54" s="33" t="s">
         <v>126</v>
@@ -3726,7 +3721,7 @@
       </c>
       <c r="H54" s="31"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="8"/>
       <c r="B55" s="33" t="s">
         <v>128</v>
@@ -3748,7 +3743,7 @@
       </c>
       <c r="H55" s="31"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="8"/>
       <c r="B56" s="33" t="s">
         <v>130</v>
@@ -3770,7 +3765,7 @@
       </c>
       <c r="H56" s="31"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="8"/>
       <c r="B57" s="33" t="s">
         <v>132</v>
@@ -3792,7 +3787,7 @@
       </c>
       <c r="H57" s="31"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="8"/>
       <c r="B58" s="33" t="s">
         <v>135</v>
@@ -3814,7 +3809,7 @@
       </c>
       <c r="H58" s="31"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="8"/>
       <c r="B59" s="33" t="s">
         <v>138</v>
@@ -3836,7 +3831,7 @@
       </c>
       <c r="H59" s="31"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="8"/>
       <c r="B60" s="33" t="s">
         <v>141</v>
@@ -3858,7 +3853,7 @@
       </c>
       <c r="H60" s="31"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="8"/>
       <c r="B61" s="33" t="s">
         <v>143</v>
@@ -3880,7 +3875,7 @@
       </c>
       <c r="H61" s="31"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="8"/>
       <c r="B62" s="33" t="s">
         <v>145</v>
@@ -3902,7 +3897,7 @@
       </c>
       <c r="H62" s="31"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="8"/>
       <c r="B63" s="33" t="s">
         <v>148</v>
@@ -3924,7 +3919,7 @@
       </c>
       <c r="H63" s="31"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="8"/>
       <c r="B64" s="33" t="s">
         <v>150</v>
@@ -3946,7 +3941,7 @@
       </c>
       <c r="H64" s="31"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="8"/>
       <c r="B65" s="33" t="s">
         <v>152</v>
@@ -3968,7 +3963,7 @@
       </c>
       <c r="H65" s="31"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="8"/>
       <c r="B66" s="33" t="s">
         <v>154</v>
@@ -3990,7 +3985,7 @@
       </c>
       <c r="H66" s="31"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="8"/>
       <c r="B67" s="33" t="s">
         <v>156</v>
@@ -4012,7 +4007,7 @@
       </c>
       <c r="H67" s="31"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="8"/>
       <c r="B68" s="33" t="s">
         <v>159</v>
@@ -4034,7 +4029,7 @@
       </c>
       <c r="H68" s="31"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="8"/>
       <c r="B69" s="33" t="s">
         <v>161</v>
@@ -4056,7 +4051,7 @@
       </c>
       <c r="H69" s="31"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="8"/>
       <c r="B70" s="33" t="s">
         <v>163</v>
@@ -4078,7 +4073,7 @@
       </c>
       <c r="H70" s="31"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="8"/>
       <c r="B71" s="33" t="s">
         <v>165</v>
@@ -4100,7 +4095,7 @@
       </c>
       <c r="H71" s="31"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="8"/>
       <c r="B72" s="33" t="s">
         <v>167</v>
@@ -4122,7 +4117,7 @@
       </c>
       <c r="H72" s="31"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="8"/>
       <c r="B73" s="33" t="s">
         <v>169</v>
@@ -4144,7 +4139,7 @@
       </c>
       <c r="H73" s="31"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="8"/>
       <c r="B74" s="33" t="s">
         <v>171</v>
@@ -4166,7 +4161,7 @@
       </c>
       <c r="H74" s="31"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" s="8"/>
       <c r="B75" s="33" t="s">
         <v>173</v>
@@ -4188,7 +4183,7 @@
       </c>
       <c r="H75" s="31"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="8"/>
       <c r="B76" s="33" t="s">
         <v>176</v>
@@ -4210,7 +4205,7 @@
       </c>
       <c r="H76" s="31"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="8"/>
       <c r="B77" s="33" t="s">
         <v>178</v>
@@ -4232,7 +4227,7 @@
       </c>
       <c r="H77" s="31"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="8"/>
       <c r="B78" s="33" t="s">
         <v>180</v>
@@ -4254,7 +4249,7 @@
       </c>
       <c r="H78" s="31"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" s="8"/>
       <c r="B79" s="33" t="s">
         <v>182</v>
@@ -4276,7 +4271,7 @@
       </c>
       <c r="H79" s="31"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="8"/>
       <c r="B80" s="33" t="s">
         <v>184</v>
@@ -4298,7 +4293,7 @@
       </c>
       <c r="H80" s="31"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="8"/>
       <c r="B81" s="33" t="s">
         <v>187</v>
@@ -4320,7 +4315,7 @@
       </c>
       <c r="H81" s="31"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="8"/>
       <c r="B82" s="33" t="s">
         <v>189</v>
@@ -4342,7 +4337,7 @@
       </c>
       <c r="H82" s="31"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="8"/>
       <c r="B83" s="33" t="s">
         <v>192</v>
@@ -4364,7 +4359,7 @@
       </c>
       <c r="H83" s="31"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="8"/>
       <c r="B84" s="33" t="s">
         <v>194</v>
@@ -4386,7 +4381,7 @@
       </c>
       <c r="H84" s="31"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="8"/>
       <c r="B85" s="33" t="s">
         <v>196</v>
@@ -4408,7 +4403,7 @@
       </c>
       <c r="H85" s="31"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="8"/>
       <c r="B86" s="33" t="s">
         <v>198</v>
@@ -4430,7 +4425,7 @@
       </c>
       <c r="H86" s="31"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="8"/>
       <c r="B87" s="33" t="s">
         <v>200</v>
@@ -4452,7 +4447,7 @@
       </c>
       <c r="H87" s="31"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="8"/>
       <c r="B88" s="33" t="s">
         <v>202</v>
@@ -4474,7 +4469,7 @@
       </c>
       <c r="H88" s="31"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="8"/>
       <c r="B89" s="33" t="s">
         <v>204</v>
@@ -4496,7 +4491,7 @@
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="8"/>
       <c r="B90" s="33" t="s">
         <v>120</v>
@@ -4518,7 +4513,7 @@
       </c>
       <c r="H90" s="31"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="8"/>
       <c r="B91" s="33" t="s">
         <v>207</v>
@@ -4540,7 +4535,7 @@
       </c>
       <c r="H91" s="31"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="8"/>
       <c r="B92" s="33" t="s">
         <v>209</v>
@@ -4562,7 +4557,7 @@
       </c>
       <c r="H92" s="31"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="8"/>
       <c r="B93" s="33" t="s">
         <v>211</v>
@@ -4584,7 +4579,7 @@
       </c>
       <c r="H93" s="31"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="8"/>
       <c r="B94" s="33" t="s">
         <v>213</v>
@@ -4606,7 +4601,7 @@
       </c>
       <c r="H94" s="31"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="B95" s="34" t="s">
         <v>215</v>
       </c>
@@ -4621,7 +4616,7 @@
       </c>
       <c r="H95" s="31"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="B96" s="34" t="s">
         <v>216</v>
       </c>
@@ -4632,7 +4627,7 @@
       <c r="G96" s="38"/>
       <c r="H96" s="31"/>
     </row>
-    <row r="97" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:255">
       <c r="B97" s="34" t="s">
         <v>215</v>
       </c>
@@ -4647,7 +4642,7 @@
       </c>
       <c r="H97" s="41"/>
     </row>
-    <row r="98" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:255">
       <c r="B98" s="42" t="s">
         <v>218</v>
       </c>
@@ -4662,7 +4657,7 @@
       </c>
       <c r="H98" s="47"/>
     </row>
-    <row r="99" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:255">
       <c r="B99" s="48" t="s">
         <v>219</v>
       </c>
@@ -4673,7 +4668,7 @@
       <c r="G99" s="52"/>
       <c r="H99" s="53"/>
     </row>
-    <row r="100" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:255">
       <c r="B100" s="54" t="s">
         <v>220</v>
       </c>
@@ -4684,7 +4679,7 @@
       <c r="G100" s="58"/>
       <c r="H100" s="59"/>
     </row>
-    <row r="101" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:255">
       <c r="B101" s="54" t="s">
         <v>215</v>
       </c>
@@ -4699,7 +4694,7 @@
       </c>
       <c r="H101" s="61"/>
     </row>
-    <row r="102" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:255">
       <c r="B102" s="54" t="s">
         <v>221</v>
       </c>
@@ -4710,7 +4705,7 @@
       <c r="G102" s="46"/>
       <c r="H102" s="59"/>
     </row>
-    <row r="103" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:255">
       <c r="B103" s="54" t="s">
         <v>215</v>
       </c>
@@ -4725,7 +4720,7 @@
       </c>
       <c r="H103" s="61"/>
     </row>
-    <row r="104" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:255">
       <c r="B104" s="54" t="s">
         <v>222</v>
       </c>
@@ -4736,7 +4731,7 @@
       <c r="G104" s="46"/>
       <c r="H104" s="59"/>
     </row>
-    <row r="105" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:255">
       <c r="B105" s="62" t="s">
         <v>215</v>
       </c>
@@ -4751,7 +4746,7 @@
       </c>
       <c r="H105" s="66"/>
     </row>
-    <row r="106" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:255">
       <c r="B106" s="67" t="s">
         <v>218</v>
       </c>
@@ -4766,7 +4761,7 @@
       </c>
       <c r="H106" s="70"/>
     </row>
-    <row r="107" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:255">
       <c r="B107" s="71"/>
       <c r="C107" s="72"/>
       <c r="D107" s="72"/>
@@ -4775,7 +4770,7 @@
       <c r="G107" s="75"/>
       <c r="H107" s="76"/>
     </row>
-    <row r="108" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:255">
       <c r="B108" s="77" t="s">
         <v>223</v>
       </c>
@@ -4786,7 +4781,7 @@
       <c r="G108" s="79"/>
       <c r="H108" s="47"/>
     </row>
-    <row r="109" spans="1:255" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:255" s="86" customFormat="1" ht="15" customHeight="1">
       <c r="A109" s="80"/>
       <c r="B109" s="67" t="s">
         <v>218</v>
@@ -5049,7 +5044,7 @@
       <c r="IT109" s="80"/>
       <c r="IU109" s="80"/>
     </row>
-    <row r="110" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:255">
       <c r="B110" s="87"/>
       <c r="C110" s="88"/>
       <c r="D110" s="88"/>
@@ -5058,7 +5053,7 @@
       <c r="G110" s="91"/>
       <c r="H110" s="92"/>
     </row>
-    <row r="111" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:255">
       <c r="A111" s="25"/>
       <c r="B111" s="26" t="s">
         <v>224</v>
@@ -5070,7 +5065,7 @@
       <c r="G111" s="30"/>
       <c r="H111" s="31"/>
     </row>
-    <row r="112" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:255">
       <c r="B112" s="32" t="s">
         <v>225</v>
       </c>
@@ -5081,7 +5076,7 @@
       <c r="G112" s="30"/>
       <c r="H112" s="31"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="8"/>
       <c r="B113" s="33" t="s">
         <v>226</v>
@@ -5101,7 +5096,7 @@
       </c>
       <c r="H113" s="31"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="B114" s="34" t="s">
         <v>215</v>
       </c>
@@ -5116,7 +5111,7 @@
       </c>
       <c r="H114" s="31"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="B115" s="32" t="s">
         <v>228</v>
       </c>
@@ -5127,7 +5122,7 @@
       <c r="G115" s="30"/>
       <c r="H115" s="31"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="8"/>
       <c r="B116" s="33" t="s">
         <v>229</v>
@@ -5145,7 +5140,7 @@
         <v>5.9125999999999998E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="B117" s="34" t="s">
         <v>215</v>
       </c>
@@ -5160,7 +5155,7 @@
       </c>
       <c r="H117" s="31"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="B118" s="67" t="s">
         <v>218</v>
       </c>
@@ -5175,7 +5170,7 @@
       </c>
       <c r="H118" s="70"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="B119" s="93"/>
       <c r="C119" s="88"/>
       <c r="D119" s="88"/>
@@ -5184,7 +5179,7 @@
       <c r="G119" s="91"/>
       <c r="H119" s="92"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="B120" s="32" t="s">
         <v>230</v>
       </c>
@@ -5195,7 +5190,7 @@
       <c r="G120" s="30"/>
       <c r="H120" s="31"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="8"/>
       <c r="B121" s="33" t="s">
         <v>231</v>
@@ -5211,7 +5206,7 @@
       </c>
       <c r="H121" s="31"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="B122" s="67" t="s">
         <v>218</v>
       </c>
@@ -5226,7 +5221,7 @@
       </c>
       <c r="H122" s="70"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="B123" s="93"/>
       <c r="C123" s="88"/>
       <c r="D123" s="88"/>
@@ -5235,7 +5230,7 @@
       <c r="G123" s="91"/>
       <c r="H123" s="92"/>
     </row>
-    <row r="124" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
       <c r="B124" s="96" t="s">
         <v>232</v>
       </c>
@@ -5250,29 +5245,29 @@
       </c>
       <c r="H124" s="102"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="B125" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="B126" s="3" t="s">
         <v>234</v>
       </c>
       <c r="F126" s="104"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="B127" s="3" t="s">
         <v>235</v>
       </c>
       <c r="F127" s="104"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="B128" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="131" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:3" ht="15.75" thickBot="1">
       <c r="B131" s="105" t="s">
         <v>237</v>
       </c>

--- a/uploaded-files/success/Mira Index Mutual Fund - 30 April 2025.xlsx
+++ b/uploaded-files/success/Mira Index Mutual Fund - 30 April 2025.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\aroha1\mutualfund\ProjectFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7635"/>
   </bookViews>
@@ -295,7 +300,7 @@
     <definedName name="XDO_GROUP_?G_5?3?">MIIOF!$112:$112</definedName>
     <definedName name="XDO_GROUP_?G_5?4?">MIIOF!$117:$117</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1028,7 +1033,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
@@ -1036,7 +1041,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="#,##0.00%;\(#,##0.00%\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2180,7 +2185,7 @@
         <xdr:cNvPr id="2" name="Logo" descr="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE3AE22-6964-4F65-8B8C-FCF602D2E99C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE3AE22-6964-4F65-8B8C-FCF602D2E99C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2219,7 +2224,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54FD632-BD91-4630-828E-53856040421C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54FD632-BD91-4630-828E-53856040421C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2254,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="MASCF"/>
@@ -2354,7 +2359,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2406,7 +2411,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2600,23 +2605,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:IU131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="83.140625" style="3" customWidth="1"/>
@@ -2629,7 +2634,7 @@
     <col min="10" max="255" width="15.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="107" t="s">
         <v>0</v>
@@ -2642,7 +2647,7 @@
       <c r="H1" s="109"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="110"/>
       <c r="C2" s="111"/>
@@ -2653,7 +2658,7 @@
       <c r="H2" s="112"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="113" t="s">
         <v>1</v>
@@ -2666,7 +2671,7 @@
       <c r="H3" s="115"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="116"/>
       <c r="C4" s="117"/>
@@ -2677,7 +2682,7 @@
       <c r="H4" s="118"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="119" t="s">
         <v>0</v>
@@ -2690,12 +2695,12 @@
       <c r="H5" s="120"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="14" t="s">
         <v>2</v>
@@ -2707,7 +2712,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1">
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
@@ -2730,7 +2735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
         <v>10</v>
@@ -2742,7 +2747,7 @@
       <c r="G9" s="30"/>
       <c r="H9" s="31"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
         <v>11</v>
       </c>
@@ -2753,7 +2758,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="31"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="33" t="s">
         <v>12</v>
@@ -2775,7 +2780,7 @@
       </c>
       <c r="H11" s="31"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="33" t="s">
         <v>15</v>
@@ -2797,7 +2802,7 @@
       </c>
       <c r="H12" s="31"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="33" t="s">
         <v>17</v>
@@ -2819,7 +2824,7 @@
       </c>
       <c r="H13" s="31"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="33" t="s">
         <v>20</v>
@@ -2841,7 +2846,7 @@
       </c>
       <c r="H14" s="31"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="33" t="s">
         <v>23</v>
@@ -2863,7 +2868,7 @@
       </c>
       <c r="H15" s="31"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="33" t="s">
         <v>25</v>
@@ -2885,7 +2890,7 @@
       </c>
       <c r="H16" s="31"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="33" t="s">
         <v>28</v>
@@ -2907,7 +2912,7 @@
       </c>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="33" t="s">
         <v>30</v>
@@ -2929,7 +2934,7 @@
       </c>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="33" t="s">
         <v>33</v>
@@ -2951,7 +2956,7 @@
       </c>
       <c r="H19" s="31"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="33" t="s">
         <v>36</v>
@@ -2973,7 +2978,7 @@
       </c>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="33" t="s">
         <v>38</v>
@@ -2995,7 +3000,7 @@
       </c>
       <c r="H21" s="31"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="33" t="s">
         <v>40</v>
@@ -3017,7 +3022,7 @@
       </c>
       <c r="H22" s="31"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="33" t="s">
         <v>43</v>
@@ -3039,7 +3044,7 @@
       </c>
       <c r="H23" s="31"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="33" t="s">
         <v>46</v>
@@ -3061,7 +3066,7 @@
       </c>
       <c r="H24" s="31"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="33" t="s">
         <v>49</v>
@@ -3083,7 +3088,7 @@
       </c>
       <c r="H25" s="31"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="33" t="s">
         <v>51</v>
@@ -3105,7 +3110,7 @@
       </c>
       <c r="H26" s="31"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="33" t="s">
         <v>53</v>
@@ -3127,7 +3132,7 @@
       </c>
       <c r="H27" s="31"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="33" t="s">
         <v>56</v>
@@ -3149,7 +3154,7 @@
       </c>
       <c r="H28" s="31"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="33" t="s">
         <v>59</v>
@@ -3171,7 +3176,7 @@
       </c>
       <c r="H29" s="31"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="33" t="s">
         <v>62</v>
@@ -3193,7 +3198,7 @@
       </c>
       <c r="H30" s="31"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="33" t="s">
         <v>65</v>
@@ -3215,7 +3220,7 @@
       </c>
       <c r="H31" s="31"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="33" t="s">
         <v>68</v>
@@ -3237,7 +3242,7 @@
       </c>
       <c r="H32" s="31"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="33" t="s">
         <v>71</v>
@@ -3259,7 +3264,7 @@
       </c>
       <c r="H33" s="31"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="33" t="s">
         <v>74</v>
@@ -3281,7 +3286,7 @@
       </c>
       <c r="H34" s="31"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="33" t="s">
         <v>77</v>
@@ -3303,7 +3308,7 @@
       </c>
       <c r="H35" s="31"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="33" t="s">
         <v>80</v>
@@ -3325,7 +3330,7 @@
       </c>
       <c r="H36" s="31"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="33" t="s">
         <v>83</v>
@@ -3347,7 +3352,7 @@
       </c>
       <c r="H37" s="31"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="33" t="s">
         <v>85</v>
@@ -3369,7 +3374,7 @@
       </c>
       <c r="H38" s="31"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="33" t="s">
         <v>87</v>
@@ -3391,7 +3396,7 @@
       </c>
       <c r="H39" s="31"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="33" t="s">
         <v>90</v>
@@ -3413,7 +3418,7 @@
       </c>
       <c r="H40" s="31"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="33" t="s">
         <v>93</v>
@@ -3435,7 +3440,7 @@
       </c>
       <c r="H41" s="31"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="33" t="s">
         <v>96</v>
@@ -3457,7 +3462,7 @@
       </c>
       <c r="H42" s="31"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="33" t="s">
         <v>98</v>
@@ -3479,7 +3484,7 @@
       </c>
       <c r="H43" s="31"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="33" t="s">
         <v>100</v>
@@ -3501,7 +3506,7 @@
       </c>
       <c r="H44" s="31"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="33" t="s">
         <v>102</v>
@@ -3523,7 +3528,7 @@
       </c>
       <c r="H45" s="31"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="33" t="s">
         <v>104</v>
@@ -3545,7 +3550,7 @@
       </c>
       <c r="H46" s="31"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="33" t="s">
         <v>106</v>
@@ -3567,7 +3572,7 @@
       </c>
       <c r="H47" s="31"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="33" t="s">
         <v>109</v>
@@ -3589,7 +3594,7 @@
       </c>
       <c r="H48" s="31"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="33" t="s">
         <v>112</v>
@@ -3611,7 +3616,7 @@
       </c>
       <c r="H49" s="31"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="33" t="s">
         <v>115</v>
@@ -3633,7 +3638,7 @@
       </c>
       <c r="H50" s="31"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="33" t="s">
         <v>117</v>
@@ -3655,7 +3660,7 @@
       </c>
       <c r="H51" s="31"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="33" t="s">
         <v>120</v>
@@ -3677,7 +3682,7 @@
       </c>
       <c r="H52" s="31"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="33" t="s">
         <v>123</v>
@@ -3699,7 +3704,7 @@
       </c>
       <c r="H53" s="31"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="33" t="s">
         <v>126</v>
@@ -3721,7 +3726,7 @@
       </c>
       <c r="H54" s="31"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="33" t="s">
         <v>128</v>
@@ -3743,7 +3748,7 @@
       </c>
       <c r="H55" s="31"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="33" t="s">
         <v>130</v>
@@ -3765,7 +3770,7 @@
       </c>
       <c r="H56" s="31"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="33" t="s">
         <v>132</v>
@@ -3787,7 +3792,7 @@
       </c>
       <c r="H57" s="31"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="33" t="s">
         <v>135</v>
@@ -3809,7 +3814,7 @@
       </c>
       <c r="H58" s="31"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="33" t="s">
         <v>138</v>
@@ -3831,7 +3836,7 @@
       </c>
       <c r="H59" s="31"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="33" t="s">
         <v>141</v>
@@ -3853,7 +3858,7 @@
       </c>
       <c r="H60" s="31"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="33" t="s">
         <v>143</v>
@@ -3875,7 +3880,7 @@
       </c>
       <c r="H61" s="31"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="33" t="s">
         <v>145</v>
@@ -3897,7 +3902,7 @@
       </c>
       <c r="H62" s="31"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="33" t="s">
         <v>148</v>
@@ -3919,7 +3924,7 @@
       </c>
       <c r="H63" s="31"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="33" t="s">
         <v>150</v>
@@ -3941,7 +3946,7 @@
       </c>
       <c r="H64" s="31"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="33" t="s">
         <v>152</v>
@@ -3963,7 +3968,7 @@
       </c>
       <c r="H65" s="31"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="33" t="s">
         <v>154</v>
@@ -3985,7 +3990,7 @@
       </c>
       <c r="H66" s="31"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="33" t="s">
         <v>156</v>
@@ -4007,7 +4012,7 @@
       </c>
       <c r="H67" s="31"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="33" t="s">
         <v>159</v>
@@ -4029,7 +4034,7 @@
       </c>
       <c r="H68" s="31"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="33" t="s">
         <v>161</v>
@@ -4051,7 +4056,7 @@
       </c>
       <c r="H69" s="31"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="33" t="s">
         <v>163</v>
@@ -4073,7 +4078,7 @@
       </c>
       <c r="H70" s="31"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="33" t="s">
         <v>165</v>
@@ -4095,7 +4100,7 @@
       </c>
       <c r="H71" s="31"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="33" t="s">
         <v>167</v>
@@ -4117,7 +4122,7 @@
       </c>
       <c r="H72" s="31"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="33" t="s">
         <v>169</v>
@@ -4139,7 +4144,7 @@
       </c>
       <c r="H73" s="31"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="33" t="s">
         <v>171</v>
@@ -4161,7 +4166,7 @@
       </c>
       <c r="H74" s="31"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="33" t="s">
         <v>173</v>
@@ -4183,7 +4188,7 @@
       </c>
       <c r="H75" s="31"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="33" t="s">
         <v>176</v>
@@ -4205,7 +4210,7 @@
       </c>
       <c r="H76" s="31"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="33" t="s">
         <v>178</v>
@@ -4227,7 +4232,7 @@
       </c>
       <c r="H77" s="31"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="33" t="s">
         <v>180</v>
@@ -4249,7 +4254,7 @@
       </c>
       <c r="H78" s="31"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="33" t="s">
         <v>182</v>
@@ -4271,7 +4276,7 @@
       </c>
       <c r="H79" s="31"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="33" t="s">
         <v>184</v>
@@ -4293,7 +4298,7 @@
       </c>
       <c r="H80" s="31"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="33" t="s">
         <v>187</v>
@@ -4315,7 +4320,7 @@
       </c>
       <c r="H81" s="31"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="33" t="s">
         <v>189</v>
@@ -4337,7 +4342,7 @@
       </c>
       <c r="H82" s="31"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="33" t="s">
         <v>192</v>
@@ -4359,7 +4364,7 @@
       </c>
       <c r="H83" s="31"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="33" t="s">
         <v>194</v>
@@ -4381,7 +4386,7 @@
       </c>
       <c r="H84" s="31"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="33" t="s">
         <v>196</v>
@@ -4403,7 +4408,7 @@
       </c>
       <c r="H85" s="31"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="33" t="s">
         <v>198</v>
@@ -4425,7 +4430,7 @@
       </c>
       <c r="H86" s="31"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="33" t="s">
         <v>200</v>
@@ -4447,7 +4452,7 @@
       </c>
       <c r="H87" s="31"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="33" t="s">
         <v>202</v>
@@ -4469,7 +4474,7 @@
       </c>
       <c r="H88" s="31"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="33" t="s">
         <v>204</v>
@@ -4491,7 +4496,7 @@
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="33" t="s">
         <v>120</v>
@@ -4513,7 +4518,7 @@
       </c>
       <c r="H90" s="31"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="33" t="s">
         <v>207</v>
@@ -4535,7 +4540,7 @@
       </c>
       <c r="H91" s="31"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="33" t="s">
         <v>209</v>
@@ -4557,7 +4562,7 @@
       </c>
       <c r="H92" s="31"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="33" t="s">
         <v>211</v>
@@ -4579,7 +4584,7 @@
       </c>
       <c r="H93" s="31"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="33" t="s">
         <v>213</v>
@@ -4601,7 +4606,7 @@
       </c>
       <c r="H94" s="31"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B95" s="34" t="s">
         <v>215</v>
       </c>
@@ -4616,7 +4621,7 @@
       </c>
       <c r="H95" s="31"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" s="34" t="s">
         <v>216</v>
       </c>
@@ -4627,7 +4632,7 @@
       <c r="G96" s="38"/>
       <c r="H96" s="31"/>
     </row>
-    <row r="97" spans="1:255">
+    <row r="97" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B97" s="34" t="s">
         <v>215</v>
       </c>
@@ -4642,7 +4647,7 @@
       </c>
       <c r="H97" s="41"/>
     </row>
-    <row r="98" spans="1:255">
+    <row r="98" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B98" s="42" t="s">
         <v>218</v>
       </c>
@@ -4657,7 +4662,7 @@
       </c>
       <c r="H98" s="47"/>
     </row>
-    <row r="99" spans="1:255">
+    <row r="99" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B99" s="48" t="s">
         <v>219</v>
       </c>
@@ -4668,7 +4673,7 @@
       <c r="G99" s="52"/>
       <c r="H99" s="53"/>
     </row>
-    <row r="100" spans="1:255">
+    <row r="100" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B100" s="54" t="s">
         <v>220</v>
       </c>
@@ -4679,7 +4684,7 @@
       <c r="G100" s="58"/>
       <c r="H100" s="59"/>
     </row>
-    <row r="101" spans="1:255">
+    <row r="101" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B101" s="54" t="s">
         <v>215</v>
       </c>
@@ -4694,7 +4699,7 @@
       </c>
       <c r="H101" s="61"/>
     </row>
-    <row r="102" spans="1:255">
+    <row r="102" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B102" s="54" t="s">
         <v>221</v>
       </c>
@@ -4705,7 +4710,7 @@
       <c r="G102" s="46"/>
       <c r="H102" s="59"/>
     </row>
-    <row r="103" spans="1:255">
+    <row r="103" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B103" s="54" t="s">
         <v>215</v>
       </c>
@@ -4720,7 +4725,7 @@
       </c>
       <c r="H103" s="61"/>
     </row>
-    <row r="104" spans="1:255">
+    <row r="104" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B104" s="54" t="s">
         <v>222</v>
       </c>
@@ -4731,7 +4736,7 @@
       <c r="G104" s="46"/>
       <c r="H104" s="59"/>
     </row>
-    <row r="105" spans="1:255">
+    <row r="105" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B105" s="62" t="s">
         <v>215</v>
       </c>
@@ -4746,7 +4751,7 @@
       </c>
       <c r="H105" s="66"/>
     </row>
-    <row r="106" spans="1:255">
+    <row r="106" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B106" s="67" t="s">
         <v>218</v>
       </c>
@@ -4761,7 +4766,7 @@
       </c>
       <c r="H106" s="70"/>
     </row>
-    <row r="107" spans="1:255">
+    <row r="107" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B107" s="71"/>
       <c r="C107" s="72"/>
       <c r="D107" s="72"/>
@@ -4770,7 +4775,7 @@
       <c r="G107" s="75"/>
       <c r="H107" s="76"/>
     </row>
-    <row r="108" spans="1:255">
+    <row r="108" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B108" s="77" t="s">
         <v>223</v>
       </c>
@@ -4781,7 +4786,7 @@
       <c r="G108" s="79"/>
       <c r="H108" s="47"/>
     </row>
-    <row r="109" spans="1:255" s="86" customFormat="1" ht="15" customHeight="1">
+    <row r="109" spans="1:255" s="86" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="80"/>
       <c r="B109" s="67" t="s">
         <v>218</v>
@@ -5044,7 +5049,7 @@
       <c r="IT109" s="80"/>
       <c r="IU109" s="80"/>
     </row>
-    <row r="110" spans="1:255">
+    <row r="110" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B110" s="87"/>
       <c r="C110" s="88"/>
       <c r="D110" s="88"/>
@@ -5053,7 +5058,7 @@
       <c r="G110" s="91"/>
       <c r="H110" s="92"/>
     </row>
-    <row r="111" spans="1:255">
+    <row r="111" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A111" s="25"/>
       <c r="B111" s="26" t="s">
         <v>224</v>
@@ -5065,7 +5070,7 @@
       <c r="G111" s="30"/>
       <c r="H111" s="31"/>
     </row>
-    <row r="112" spans="1:255">
+    <row r="112" spans="1:255" x14ac:dyDescent="0.25">
       <c r="B112" s="32" t="s">
         <v>225</v>
       </c>
@@ -5076,7 +5081,7 @@
       <c r="G112" s="30"/>
       <c r="H112" s="31"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="33" t="s">
         <v>226</v>
@@ -5096,7 +5101,7 @@
       </c>
       <c r="H113" s="31"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B114" s="34" t="s">
         <v>215</v>
       </c>
@@ -5111,7 +5116,7 @@
       </c>
       <c r="H114" s="31"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B115" s="32" t="s">
         <v>228</v>
       </c>
@@ -5122,7 +5127,7 @@
       <c r="G115" s="30"/>
       <c r="H115" s="31"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="33" t="s">
         <v>229</v>
@@ -5140,7 +5145,7 @@
         <v>5.9125999999999998E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="34" t="s">
         <v>215</v>
       </c>
@@ -5155,7 +5160,7 @@
       </c>
       <c r="H117" s="31"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B118" s="67" t="s">
         <v>218</v>
       </c>
@@ -5170,7 +5175,7 @@
       </c>
       <c r="H118" s="70"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" s="93"/>
       <c r="C119" s="88"/>
       <c r="D119" s="88"/>
@@ -5179,7 +5184,7 @@
       <c r="G119" s="91"/>
       <c r="H119" s="92"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B120" s="32" t="s">
         <v>230</v>
       </c>
@@ -5190,7 +5195,7 @@
       <c r="G120" s="30"/>
       <c r="H120" s="31"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="33" t="s">
         <v>231</v>
@@ -5206,7 +5211,7 @@
       </c>
       <c r="H121" s="31"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B122" s="67" t="s">
         <v>218</v>
       </c>
@@ -5221,7 +5226,7 @@
       </c>
       <c r="H122" s="70"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="93"/>
       <c r="C123" s="88"/>
       <c r="D123" s="88"/>
@@ -5230,7 +5235,7 @@
       <c r="G123" s="91"/>
       <c r="H123" s="92"/>
     </row>
-    <row r="124" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
+    <row r="124" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="96" t="s">
         <v>232</v>
       </c>
@@ -5245,29 +5250,29 @@
       </c>
       <c r="H124" s="102"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
         <v>234</v>
       </c>
       <c r="F126" s="104"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
         <v>235</v>
       </c>
       <c r="F127" s="104"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="131" spans="2:3" ht="15.75" thickBot="1">
+    <row r="131" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="105" t="s">
         <v>237</v>
       </c>
